--- a/municipal/ENG/Main Information/Administrative structure/Kakheti/Dedoplistskaro.xlsx
+++ b/municipal/ENG/Main Information/Administrative structure/Kakheti/Dedoplistskaro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Administrative structure\kakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\დასახლებების რაოდენობა\Number of settlements\kakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>By January 1, 2022 (unit)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>City</t>
   </si>
@@ -42,6 +39,12 @@
   </si>
   <si>
     <t>Dedoplistsqaro Municipality</t>
+  </si>
+  <si>
+    <t>Self-governing city</t>
+  </si>
+  <si>
+    <t>By January 1, 2023 (unit)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -153,6 +156,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,9 +450,9 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -455,58 +461,82 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="B7" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="B8" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
